--- a/file/laporanHutang.xlsx
+++ b/file/laporanHutang.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data utangpiutang" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data Laporan Hutang" sheetId="1" relationships:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>

--- a/file/laporanHutang.xlsx
+++ b/file/laporanHutang.xlsx
@@ -345,7 +345,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2020-01-01 00:00:00 +0000 UTC</v>
+        <v>2020-07-08 00:00:00 +0000 UTC</v>
       </c>
       <c r="B2" t="str">
         <v>joni</v>
@@ -358,15 +358,30 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4">
-      <c r="C4" t="str">
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2020-01-01 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="B3" t="str">
+        <v>fery</v>
+      </c>
+      <c r="C3" t="str"/>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="E3" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="C5" t="str">
         <v>Total</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5">
         <v>5000</v>
       </c>
     </row>

--- a/file/laporanHutang.xlsx
+++ b/file/laporanHutang.xlsx
@@ -358,30 +358,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2020-01-01 00:00:00 +0000 UTC</v>
-      </c>
-      <c r="B3" t="str">
-        <v>fery</v>
-      </c>
-      <c r="C3" t="str"/>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="C5" t="str">
+    <row r="3"/>
+    <row r="4">
+      <c r="C4" t="str">
         <v>Total</v>
       </c>
-      <c r="D5">
-        <v>5000</v>
-      </c>
-      <c r="E5">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>5000</v>
       </c>
     </row>
